--- a/汽柴煤油2.0/eta/SC原油连1-连3月差_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/SC原油连1-连3月差_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>10.6</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="C3" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>1.6</v>
       </c>
       <c r="C4" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>4.8</v>
       </c>
       <c r="C5" t="n">
-        <v>11.4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>11.5</v>
       </c>
       <c r="C6" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>12.7</v>
       </c>
       <c r="C7" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="8">
@@ -536,7 +536,7 @@
         <v>4.8</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="9">
@@ -562,7 +562,7 @@
         <v>6.5</v>
       </c>
       <c r="C10" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="11">
@@ -575,7 +575,7 @@
         <v>11.9</v>
       </c>
       <c r="C11" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
         <v>7.5</v>
       </c>
       <c r="C18" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="19">
@@ -692,7 +692,7 @@
         <v>5.6</v>
       </c>
       <c r="C20" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="21">
@@ -718,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -744,7 +744,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25">
